--- a/BOQ.xlsx
+++ b/BOQ.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Learning\BOQ_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF9784A-187C-44AE-BB96-CF5FD90645DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04578A1-1A23-4F4A-B5C7-E29B0809B750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7652085C-A012-B84E-87C1-9954454D31C4}"/>
+    <workbookView minimized="1" xWindow="3885" yWindow="2415" windowWidth="7500" windowHeight="6000" xr2:uid="{7652085C-A012-B84E-87C1-9954454D31C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$196</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2343,10 +2346,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB0C94C-CAB8-784B-B313-13D175B7DB10}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A315" workbookViewId="0">
-      <selection activeCell="B335" sqref="B335"/>
+    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="D300" sqref="D300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2385,7 +2389,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>4210</v>
       </c>
@@ -2411,7 +2415,7 @@
         <v>2218249</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>237</v>
       </c>
@@ -2437,7 +2441,7 @@
         <v>71361</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3000</v>
       </c>
@@ -2463,7 +2467,7 @@
         <v>402750</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2100</v>
       </c>
@@ -2489,7 +2493,7 @@
         <v>360780</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>402.90930000000003</v>
       </c>
@@ -2515,7 +2519,7 @@
         <v>1042830</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>970.93000000000006</v>
       </c>
@@ -2541,7 +2545,7 @@
         <v>237101</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>776</v>
       </c>
@@ -2567,7 +2571,7 @@
         <v>696615</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="126" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="126" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>4800</v>
       </c>
@@ -2593,7 +2597,7 @@
         <v>788160</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1360.0000000000009</v>
       </c>
@@ -2619,7 +2623,7 @@
         <v>538492</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>25</v>
       </c>
@@ -2645,7 +2649,7 @@
         <v>45288</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>25</v>
       </c>
@@ -2671,7 +2675,7 @@
         <v>50939</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>25</v>
       </c>
@@ -2697,7 +2701,7 @@
         <v>36534</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="173.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>162</v>
       </c>
@@ -2723,7 +2727,7 @@
         <v>884107</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="173.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>618</v>
       </c>
@@ -2749,7 +2753,7 @@
         <v>3247590</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="189" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="189" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>150</v>
       </c>
@@ -2775,7 +2779,7 @@
         <v>2453408</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>910</v>
       </c>
@@ -2801,7 +2805,7 @@
         <v>456502</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="189" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="189" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>998</v>
       </c>
@@ -2827,7 +2831,7 @@
         <v>12338424</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="189" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="189" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>66</v>
       </c>
@@ -2853,7 +2857,7 @@
         <v>866402</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="189" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="189" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>182</v>
       </c>
@@ -2879,7 +2883,7 @@
         <v>2817324</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="189" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="189" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>286</v>
       </c>
@@ -2905,7 +2909,7 @@
         <v>4677830</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="189" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="189" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>117</v>
       </c>
@@ -2931,7 +2935,7 @@
         <v>2022205</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="189" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="189" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>117</v>
       </c>
@@ -2957,7 +2961,7 @@
         <v>2130751</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="189" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="189" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>117</v>
       </c>
@@ -2983,7 +2987,7 @@
         <v>2239298</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="189" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="189" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>4</v>
       </c>
@@ -3009,7 +3013,7 @@
         <v>80272</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="173.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>13</v>
       </c>
@@ -3035,7 +3039,7 @@
         <v>200926</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="173.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>12</v>
       </c>
@@ -3061,7 +3065,7 @@
         <v>195101</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="173.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>18</v>
       </c>
@@ -3087,7 +3091,7 @@
         <v>307099</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="173.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>13</v>
       </c>
@@ -3113,7 +3117,7 @@
         <v>232227</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="173.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1</v>
       </c>
@@ -3139,7 +3143,7 @@
         <v>18666</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="189" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="189" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>131</v>
       </c>
@@ -3165,7 +3169,7 @@
         <v>1861661</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="189" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="189" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>116</v>
       </c>
@@ -3191,7 +3195,7 @@
         <v>1722356</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="189" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="189" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>116</v>
       </c>
@@ -3217,7 +3221,7 @@
         <v>1796214</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="189" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="189" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>116</v>
       </c>
@@ -3243,7 +3247,7 @@
         <v>1870077</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="189" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="189" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -3581,7 +3585,7 @@
         <v>115926</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="173.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>48</v>
       </c>
@@ -3607,7 +3611,7 @@
         <v>785090</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="189" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="189" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>12</v>
       </c>
@@ -4075,7 +4079,7 @@
         <v>80800</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>6</v>
       </c>
@@ -4101,7 +4105,7 @@
         <v>51428</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>4</v>
       </c>
@@ -4127,7 +4131,7 @@
         <v>35031</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>4</v>
       </c>
@@ -4153,7 +4157,7 @@
         <v>35777</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>2</v>
       </c>
@@ -4179,7 +4183,7 @@
         <v>18262</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="173.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>284.26</v>
       </c>
@@ -4205,7 +4209,7 @@
         <v>26949895</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="173.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>88</v>
       </c>
@@ -4231,7 +4235,7 @@
         <v>8511703</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="173.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>68</v>
       </c>
@@ -4257,7 +4261,7 @@
         <v>6707557</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="173.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>83</v>
       </c>
@@ -4283,7 +4287,7 @@
         <v>8346252</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="173.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>4.5</v>
       </c>
@@ -4309,7 +4313,7 @@
         <v>461133</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="126" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="126" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>866</v>
       </c>
@@ -4335,7 +4339,7 @@
         <v>7657345</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="126" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="126" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>577</v>
       </c>
@@ -4361,7 +4365,7 @@
         <v>5472932</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="126" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="126" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>591</v>
       </c>
@@ -4387,7 +4391,7 @@
         <v>5985707</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="126" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="126" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>581</v>
       </c>
@@ -4413,7 +4417,7 @@
         <v>6257951</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="126" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="126" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>129</v>
       </c>
@@ -4439,7 +4443,7 @@
         <v>1472400</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="173.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>479</v>
       </c>
@@ -4465,7 +4469,7 @@
         <v>485467</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="173.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>455</v>
       </c>
@@ -4491,7 +4495,7 @@
         <v>506301</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="173.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>398</v>
       </c>
@@ -4517,7 +4521,7 @@
         <v>482376</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="173.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>398</v>
       </c>
@@ -4543,7 +4547,7 @@
         <v>521878</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="157.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>152</v>
       </c>
@@ -4569,7 +4573,7 @@
         <v>1013126</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="157.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>3</v>
       </c>
@@ -4595,7 +4599,7 @@
         <v>20556</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="157.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>3</v>
       </c>
@@ -4621,7 +4625,7 @@
         <v>21115</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="157.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>3</v>
       </c>
@@ -4647,7 +4651,7 @@
         <v>21675</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="157.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>1</v>
       </c>
@@ -5583,7 +5587,7 @@
         <v>28434</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>158</v>
       </c>
@@ -5609,7 +5613,7 @@
         <v>81860</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>302</v>
       </c>
@@ -5635,7 +5639,7 @@
         <v>156466</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>302</v>
       </c>
@@ -5661,7 +5665,7 @@
         <v>156466</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>216</v>
       </c>
@@ -6259,7 +6263,7 @@
         <v>669834</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="173.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>1</v>
       </c>
@@ -6285,7 +6289,7 @@
         <v>25712</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="173.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>9</v>
       </c>
@@ -6311,7 +6315,7 @@
         <v>184509</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="173.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>1</v>
       </c>
@@ -6337,7 +6341,7 @@
         <v>16424</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="173.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>9</v>
       </c>
@@ -6363,7 +6367,7 @@
         <v>126144</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="173.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>15</v>
       </c>
@@ -6389,7 +6393,7 @@
         <v>189045</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="204.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>133</v>
       </c>
@@ -6415,7 +6419,7 @@
         <v>1637097</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>845</v>
       </c>
@@ -6441,7 +6445,7 @@
         <v>719095</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="189" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="189" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>254</v>
       </c>
@@ -6909,7 +6913,7 @@
         <v>2137452</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>285</v>
       </c>
@@ -6935,7 +6939,7 @@
         <v>1044525</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>38</v>
       </c>
@@ -6961,7 +6965,7 @@
         <v>17702</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="126" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" ht="126" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>149</v>
       </c>
@@ -6987,7 +6991,7 @@
         <v>130181</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>45</v>
       </c>
@@ -7013,7 +7017,7 @@
         <v>15901</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" ht="157.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>108</v>
       </c>
@@ -7039,7 +7043,7 @@
         <v>804492</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>8105</v>
       </c>
@@ -7065,7 +7069,7 @@
         <v>1105522</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>287</v>
       </c>
@@ -7091,7 +7095,7 @@
         <v>264772</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" ht="157.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>31</v>
       </c>
@@ -7117,7 +7121,7 @@
         <v>385333</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>1944</v>
       </c>
@@ -7143,7 +7147,7 @@
         <v>234252</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>382</v>
       </c>
@@ -7169,7 +7173,7 @@
         <v>52869</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>918</v>
       </c>
@@ -7195,7 +7199,7 @@
         <v>813394</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="126" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" ht="126" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>414</v>
       </c>
@@ -7221,7 +7225,7 @@
         <v>89838</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" ht="110.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>559</v>
       </c>
@@ -7247,7 +7251,7 @@
         <v>528255</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="126" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" ht="126" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>156</v>
       </c>
@@ -7273,7 +7277,7 @@
         <v>787800</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="126" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" ht="126" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>414</v>
       </c>
@@ -7299,7 +7303,7 @@
         <v>2900484</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>15</v>
       </c>
@@ -7325,7 +7329,7 @@
         <v>16418</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>195</v>
       </c>
@@ -7351,7 +7355,7 @@
         <v>31717</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>16</v>
       </c>
@@ -7377,7 +7381,7 @@
         <v>10486</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" ht="94.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>9</v>
       </c>
@@ -7403,7 +7407,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" ht="141.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>608</v>
       </c>
@@ -7429,7 +7433,7 @@
         <v>305003</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" ht="78.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>25</v>
       </c>
@@ -11172,6 +11176,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H196" xr:uid="{BAB0C94C-CAB8-784B-B313-13D175B7DB10}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="1SQM"/>
+        <filter val="1Sqmt"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
